--- a/biology/Médecine/Santiago_Dexeus/Santiago_Dexeus.xlsx
+++ b/biology/Médecine/Santiago_Dexeus/Santiago_Dexeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santiago Dexeus y de Trias de Bes, né à Barcelone le 22 juillet 1935 et mort le 12 avril 2024 à Madrid[1], est un gynécologue espagnol.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santiago Dexeus y de Trias de Bes, né à Barcelone le 22 juillet 1935 et mort le 12 avril 2024 à Madrid, est un gynécologue espagnol.
 </t>
         </is>
       </c>
@@ -511,17 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Santiago Dexeus est le fils de Santiago Dexeus i Font (ca).
-Formation
-En 1959, Santiago Dexeus est diplômé en médecine à l'université de Barcelone[2], se spécialise dans les universités à Manchester, en Suisse, à Paris et à Florence, et en 1964, il obtient son doctorat à l'université de Madrid[3].
-Carrière
-Santiago Dexeus devient résident à l'Institut de la maternité de Barcelone, dont il est le directeur  du département d’oncologie et maternité de 1964 à 1972. En 1973, il fonde l’Institut Dexeus et devient président du conseil d’administration et du département de gynécologie et d’obstétrique. L’Institut est pionnier dans la défense du droit des femmes à utiliser la pilule contraceptive et la fécondation in vitro.
-Lors des élections générales de 1980, il est candidat pour le Centre démocratique et social d'Adolfo Suarez, mais il n’est pas élu.
-En 1985, il contribue à la naissance du premier bébé-éprouvette en Espagne[4]. De 1992 à 2002 il est président de la Commission nationale d'obstétrique et de gynécologie. Il enseigne à la Faculté de médecine, à l’université autonome de Barcelone depuis 1998 et il est codirecteur de la progression mensuelle[Quoi ?] d'obstétrique et de gynécologie. 
-Il est président honoraire de la Société espagnole de cytologie depuis 2007 et président de la Fédération européenne de colposcopie. En 2004, il reçoit la médaille d'or du Mérite du travail et en 2009 la « croix de Sant Jordi »[5].
-Le 25 février 1996, il est nommé docteur honoris causa par l'Université de Coimbra (Portugal).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santiago Dexeus est le fils de Santiago Dexeus i Font (ca).
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +553,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1959, Santiago Dexeus est diplômé en médecine à l'université de Barcelone, se spécialise dans les universités à Manchester, en Suisse, à Paris et à Florence, et en 1964, il obtient son doctorat à l'université de Madrid.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Santiago_Dexeus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santiago_Dexeus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Santiago Dexeus devient résident à l'Institut de la maternité de Barcelone, dont il est le directeur  du département d’oncologie et maternité de 1964 à 1972. En 1973, il fonde l’Institut Dexeus et devient président du conseil d’administration et du département de gynécologie et d’obstétrique. L’Institut est pionnier dans la défense du droit des femmes à utiliser la pilule contraceptive et la fécondation in vitro.
+Lors des élections générales de 1980, il est candidat pour le Centre démocratique et social d'Adolfo Suarez, mais il n’est pas élu.
+En 1985, il contribue à la naissance du premier bébé-éprouvette en Espagne. De 1992 à 2002 il est président de la Commission nationale d'obstétrique et de gynécologie. Il enseigne à la Faculté de médecine, à l’université autonome de Barcelone depuis 1998 et il est codirecteur de la progression mensuelle[Quoi ?] d'obstétrique et de gynécologie. 
+Il est président honoraire de la Société espagnole de cytologie depuis 2007 et président de la Fédération européenne de colposcopie. En 2004, il reçoit la médaille d'or du Mérite du travail et en 2009 la « croix de Sant Jordi ».
+Le 25 février 1996, il est nommé docteur honoris causa par l'Université de Coimbra (Portugal).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santiago_Dexeus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santiago_Dexeus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaire de recherche en obstétrique et gynécologie à l'Université Autonome de Barcelone (nommé le 9 juin 1998).
 Président de la Fundación Santiago Dexeus Font.
@@ -568,31 +654,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Santiago_Dexeus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Santiago_Dexeus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Santiago Dexeus est l'auteur de nombreux livres sur la gynécologie (14), certains d'entre eux traduits en plusieurs langues :
 Le celioscopia en ginecología (1964)
